--- a/Report/Iteration 2 Correction Grid.xlsx
+++ b/Report/Iteration 2 Correction Grid.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hun/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hun/Documents/Carleton/Winter 2016/COMP 3004/Project/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="286">
   <si>
     <t>Integrated Networking</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -370,9 +370,6 @@
     <t xml:space="preserve">ALL claimed bonuses must be described in your documentation </t>
   </si>
   <si>
-    <t>You must provide a list of relevant tests AND proof these test succeed</t>
-  </si>
-  <si>
     <t>Cucumber tests</t>
   </si>
   <si>
@@ -436,18 +433,6 @@
     </r>
   </si>
   <si>
-    <t>demoed?</t>
-  </si>
-  <si>
-    <t>You must spell out what s/w is needed and how to run</t>
-  </si>
-  <si>
-    <t>Proof can take the form of a snapshot of a window in which tests are shown to have run OR</t>
-  </si>
-  <si>
-    <t>you could include a video of the tests being run</t>
-  </si>
-  <si>
     <t>did you provide a video of your game</t>
   </si>
   <si>
@@ -525,9 +510,6 @@
     <t xml:space="preserve">     bullet  j: winning a purple tournament choosing a token</t>
   </si>
   <si>
-    <t xml:space="preserve">     bullet k: losing with a maiden and losing a token</t>
-  </si>
-  <si>
     <t>do you enforce NOT choosing a token already received when winning a purple tournament</t>
   </si>
   <si>
@@ -590,6 +572,564 @@
   </si>
   <si>
     <t>resizable cards/Right click any face-up cards to display larger image of the card</t>
+  </si>
+  <si>
+    <t>DodgeA()</t>
+  </si>
+  <si>
+    <t>DodgeB()</t>
+  </si>
+  <si>
+    <t>DodgeC()</t>
+  </si>
+  <si>
+    <t>DodgeD()</t>
+  </si>
+  <si>
+    <t>DodgeE()</t>
+  </si>
+  <si>
+    <t>DisgraceB()</t>
+  </si>
+  <si>
+    <t>DisgraceA()</t>
+  </si>
+  <si>
+    <t>RetreatA()</t>
+  </si>
+  <si>
+    <t>RiposteA()</t>
+  </si>
+  <si>
+    <t>OutmanoeuverA()</t>
+  </si>
+  <si>
+    <t>CounterChargeA()</t>
+  </si>
+  <si>
+    <t>ChargeA()</t>
+  </si>
+  <si>
+    <t>BreakLanceA()</t>
+  </si>
+  <si>
+    <t>AdaptA()</t>
+  </si>
+  <si>
+    <t>DropWeaponA()</t>
+  </si>
+  <si>
+    <t>ChangeWeaponA()</t>
+  </si>
+  <si>
+    <t>UnhorseA()</t>
+  </si>
+  <si>
+    <t>KnockDownA()</t>
+  </si>
+  <si>
+    <t>OutwitA()</t>
+  </si>
+  <si>
+    <t>StunnedA()</t>
+  </si>
+  <si>
+    <t>ShieldA()</t>
+  </si>
+  <si>
+    <t>RetreatB()</t>
+  </si>
+  <si>
+    <t>RiposteB()</t>
+  </si>
+  <si>
+    <t>OutmanoeuverB()</t>
+  </si>
+  <si>
+    <t>CounterChargeB()</t>
+  </si>
+  <si>
+    <t>ChargeB()</t>
+  </si>
+  <si>
+    <t>AdaptB()</t>
+  </si>
+  <si>
+    <t>BreakLanceB()</t>
+  </si>
+  <si>
+    <t>DropWeaponB()</t>
+  </si>
+  <si>
+    <t>ChangeWeaponB()</t>
+  </si>
+  <si>
+    <t>UnhorseB()</t>
+  </si>
+  <si>
+    <t>KnockDownB()</t>
+  </si>
+  <si>
+    <t>OutwitB()</t>
+  </si>
+  <si>
+    <t>ShieldB()</t>
+  </si>
+  <si>
+    <t>StunnedB()</t>
+  </si>
+  <si>
+    <t>DisgraceC()</t>
+  </si>
+  <si>
+    <t>RetreatC()</t>
+  </si>
+  <si>
+    <t>RiposteC()</t>
+  </si>
+  <si>
+    <t>OutmanoeuverC()</t>
+  </si>
+  <si>
+    <t>CounterChargeC()</t>
+  </si>
+  <si>
+    <t>ChargeC()</t>
+  </si>
+  <si>
+    <t>BreakLanceC()</t>
+  </si>
+  <si>
+    <t>AdaptC()</t>
+  </si>
+  <si>
+    <t>DropWeaponC()</t>
+  </si>
+  <si>
+    <t>ChangeWeaponC()</t>
+  </si>
+  <si>
+    <t>UnhorseC()</t>
+  </si>
+  <si>
+    <t>KnockDownC()</t>
+  </si>
+  <si>
+    <t>OutwitC()</t>
+  </si>
+  <si>
+    <t>ShieldC()</t>
+  </si>
+  <si>
+    <t>StunnedC()</t>
+  </si>
+  <si>
+    <t>DisgraceD()</t>
+  </si>
+  <si>
+    <t>RetreatD()</t>
+  </si>
+  <si>
+    <t>RiposteD()</t>
+  </si>
+  <si>
+    <t>OutmanoeuverD()</t>
+  </si>
+  <si>
+    <t>CounterChargeD()</t>
+  </si>
+  <si>
+    <t>ChargeD()</t>
+  </si>
+  <si>
+    <t>BreakLanceD()</t>
+  </si>
+  <si>
+    <t>AdaptD()</t>
+  </si>
+  <si>
+    <t>DropWeaponD()</t>
+  </si>
+  <si>
+    <t>ChangeWeaponD()</t>
+  </si>
+  <si>
+    <t>UnhorseD()</t>
+  </si>
+  <si>
+    <t>KnockDownD()</t>
+  </si>
+  <si>
+    <t>OutwitD()</t>
+  </si>
+  <si>
+    <t>ShieldD()</t>
+  </si>
+  <si>
+    <t>StunnedD()</t>
+  </si>
+  <si>
+    <t>DisgraceE()</t>
+  </si>
+  <si>
+    <t>RetreatE()</t>
+  </si>
+  <si>
+    <t>RiposteE()</t>
+  </si>
+  <si>
+    <t>OutmanoeuverE()</t>
+  </si>
+  <si>
+    <t>CounterChargeE()</t>
+  </si>
+  <si>
+    <t>ChargeE()</t>
+  </si>
+  <si>
+    <t>BreakLanceE()</t>
+  </si>
+  <si>
+    <t>AdaptE()</t>
+  </si>
+  <si>
+    <t>DropWeaponE()</t>
+  </si>
+  <si>
+    <t>ChangeWeaponE()</t>
+  </si>
+  <si>
+    <t>UnhorseE()</t>
+  </si>
+  <si>
+    <t>KnockDownE()</t>
+  </si>
+  <si>
+    <t>OutwitE()</t>
+  </si>
+  <si>
+    <t>ShieldE()</t>
+  </si>
+  <si>
+    <t>StunnedE()</t>
+  </si>
+  <si>
+    <t>checking a used action card is indeed thrown away</t>
+  </si>
+  <si>
+    <t>making sure the card cannot be played in some circumstances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     bullet k1: losing with a maiden and losing a token(1 token)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     bullet k2: losing with a maiden and losing a token(4 tokens)</t>
+  </si>
+  <si>
+    <t>TestA1Green()</t>
+  </si>
+  <si>
+    <t>TestB1Green()</t>
+  </si>
+  <si>
+    <t>TestB2Green()</t>
+  </si>
+  <si>
+    <t>TestC1Green()</t>
+  </si>
+  <si>
+    <t>TestC2Green()</t>
+  </si>
+  <si>
+    <t>TestD1Green()</t>
+  </si>
+  <si>
+    <t>TestD2Green()</t>
+  </si>
+  <si>
+    <t>TestE1Green()</t>
+  </si>
+  <si>
+    <t>TestE2Green()</t>
+  </si>
+  <si>
+    <t>TestE3Green()</t>
+  </si>
+  <si>
+    <t>TestF1Green()</t>
+  </si>
+  <si>
+    <t>TestG1Green()</t>
+  </si>
+  <si>
+    <t>TestH1Green()</t>
+  </si>
+  <si>
+    <t>TestI1Green()</t>
+  </si>
+  <si>
+    <t>TestJ1Green()</t>
+  </si>
+  <si>
+    <t>TestK1Green()</t>
+  </si>
+  <si>
+    <t>TestK2Green()</t>
+  </si>
+  <si>
+    <t>TestA1Yellow()</t>
+  </si>
+  <si>
+    <t>TestB1Yellow()</t>
+  </si>
+  <si>
+    <t>TestB2Yellow()</t>
+  </si>
+  <si>
+    <t>TestC1Yellow()</t>
+  </si>
+  <si>
+    <t>TestC2Yellow()</t>
+  </si>
+  <si>
+    <t>TestD1Yellow()</t>
+  </si>
+  <si>
+    <t>TestD2Yellow()</t>
+  </si>
+  <si>
+    <t>TestE1Yellow()</t>
+  </si>
+  <si>
+    <t>TestE2Yellow()</t>
+  </si>
+  <si>
+    <t>TestE3Yellow()</t>
+  </si>
+  <si>
+    <t>TestF1Yellow()</t>
+  </si>
+  <si>
+    <t>TestG1Yellow()</t>
+  </si>
+  <si>
+    <t>TestH1Yellow()</t>
+  </si>
+  <si>
+    <t>TestI1Yellow()</t>
+  </si>
+  <si>
+    <t>TestJ1Yellow()</t>
+  </si>
+  <si>
+    <t>TestK1Yellow()</t>
+  </si>
+  <si>
+    <t>TestK2Yellow()</t>
+  </si>
+  <si>
+    <t>TestA1Red()</t>
+  </si>
+  <si>
+    <t>TestB1Red()</t>
+  </si>
+  <si>
+    <t>TestB2Red()</t>
+  </si>
+  <si>
+    <t>TestC1Red()</t>
+  </si>
+  <si>
+    <t>TestC2Red()</t>
+  </si>
+  <si>
+    <t>TestD1Red()</t>
+  </si>
+  <si>
+    <t>TestD2Red()</t>
+  </si>
+  <si>
+    <t>TestE1Red()</t>
+  </si>
+  <si>
+    <t>TestE2Red()</t>
+  </si>
+  <si>
+    <t>TestE3Red()</t>
+  </si>
+  <si>
+    <t>TestF1Red()</t>
+  </si>
+  <si>
+    <t>TestG1Red()</t>
+  </si>
+  <si>
+    <t>TestH1Red()</t>
+  </si>
+  <si>
+    <t>TestI1Red()</t>
+  </si>
+  <si>
+    <t>TestJ1Red()</t>
+  </si>
+  <si>
+    <t>TestK1Red()</t>
+  </si>
+  <si>
+    <t>TestK2Red()</t>
+  </si>
+  <si>
+    <t>TestA1Blue()</t>
+  </si>
+  <si>
+    <t>TestB1Blue()</t>
+  </si>
+  <si>
+    <t>TestB2Blue()</t>
+  </si>
+  <si>
+    <t>TestC1Blue()</t>
+  </si>
+  <si>
+    <t>TestC2Blue()</t>
+  </si>
+  <si>
+    <t>TestD1Blue()</t>
+  </si>
+  <si>
+    <t>TestD2Blue()</t>
+  </si>
+  <si>
+    <t>TestE1Blue()</t>
+  </si>
+  <si>
+    <t>TestE2Blue()</t>
+  </si>
+  <si>
+    <t>TestE3Blue()</t>
+  </si>
+  <si>
+    <t>TestF1Blue()</t>
+  </si>
+  <si>
+    <t>TestG1Blue()</t>
+  </si>
+  <si>
+    <t>TestH1Blue()</t>
+  </si>
+  <si>
+    <t>TestI1Blue()</t>
+  </si>
+  <si>
+    <t>TestJ1Blue()</t>
+  </si>
+  <si>
+    <t>TestK1Blue()</t>
+  </si>
+  <si>
+    <t>TestK2Blue()</t>
+  </si>
+  <si>
+    <t>TestA1Purple()</t>
+  </si>
+  <si>
+    <t>TestB1Purple()</t>
+  </si>
+  <si>
+    <t>TestB2Purple()</t>
+  </si>
+  <si>
+    <t>TestC1Purple()</t>
+  </si>
+  <si>
+    <t>TestC2Purple()</t>
+  </si>
+  <si>
+    <t>TestD1Purple()</t>
+  </si>
+  <si>
+    <t>TestD2Purple()</t>
+  </si>
+  <si>
+    <t>TestE1Purple()</t>
+  </si>
+  <si>
+    <t>TestE2Purple()</t>
+  </si>
+  <si>
+    <t>TestE3Purple()</t>
+  </si>
+  <si>
+    <t>TestF1Purple()</t>
+  </si>
+  <si>
+    <t>TestG1Purple()</t>
+  </si>
+  <si>
+    <t>TestH1Purple()</t>
+  </si>
+  <si>
+    <t>TestI1Purple()</t>
+  </si>
+  <si>
+    <t>TestJ1Purple()</t>
+  </si>
+  <si>
+    <t>TestK1Purple()</t>
+  </si>
+  <si>
+    <t>TestK2Purple()</t>
+  </si>
+  <si>
+    <t>All Unit test</t>
+  </si>
+  <si>
+    <t>TestF1Green() - TestF1Purple() in TestIvanhoeTournament</t>
+  </si>
+  <si>
+    <t>"E" Tests in TestIvanhoeActionCards</t>
+  </si>
+  <si>
+    <t>Right-click any face-up card to show the good view</t>
+  </si>
+  <si>
+    <t>Any player quit in any reason the server will shut down</t>
+  </si>
+  <si>
+    <t>Display all information of current tournament information in the center</t>
+  </si>
+  <si>
+    <t>Test Driver for every single action card</t>
+  </si>
+  <si>
+    <t>A1()</t>
+  </si>
+  <si>
+    <t>B1()</t>
+  </si>
+  <si>
+    <t>D1()</t>
+  </si>
+  <si>
+    <t>E1()</t>
+  </si>
+  <si>
+    <t>F1()</t>
+  </si>
+  <si>
+    <t>G1()</t>
+  </si>
+  <si>
+    <t>H1()</t>
+  </si>
+  <si>
+    <t>I1()</t>
+  </si>
+  <si>
+    <t>Show In Demo</t>
+  </si>
+  <si>
+    <t>All Action Card Test</t>
   </si>
 </sst>
 </file>
@@ -1226,15 +1766,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1"/>
+    <col min="10" max="10" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -1247,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1255,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1263,15 +1809,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1279,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1287,7 +1833,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1295,7 +1841,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -1303,48 +1849,48 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1408,101 +1954,140 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H20" t="s">
+        <v>236</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J20" t="s">
+        <v>253</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>220</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>237</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>254</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H22" t="s">
+        <v>238</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>255</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -1510,68 +2095,104 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>205</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H23" t="s">
+        <v>239</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J23" t="s">
+        <v>256</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>206</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>240</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J24" t="s">
+        <v>257</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>207</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
+        <v>241</v>
       </c>
       <c r="I25" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J25" t="s">
+        <v>258</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1579,22 +2200,34 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H26" t="s">
+        <v>242</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J26" t="s">
+        <v>259</v>
       </c>
       <c r="K26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1602,868 +2235,1373 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H27" t="s">
+        <v>243</v>
       </c>
       <c r="I27" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J27" t="s">
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>244</v>
       </c>
       <c r="I28" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F29" t="s">
+        <v>228</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>245</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
       </c>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H30" t="s">
+        <v>246</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J30" t="s">
+        <v>263</v>
       </c>
       <c r="K30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>230</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H31" t="s">
+        <v>247</v>
       </c>
       <c r="I31" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
       </c>
       <c r="K31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>214</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F32" t="s">
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H32" t="s">
+        <v>248</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J32" t="s">
+        <v>265</v>
       </c>
       <c r="K32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>198</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="F33" t="s">
+        <v>232</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H33" t="s">
+        <v>249</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J33" t="s">
+        <v>266</v>
       </c>
       <c r="K33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="H34" t="s">
+        <v>250</v>
       </c>
       <c r="I34" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
       </c>
       <c r="K34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" t="s">
+        <v>251</v>
+      </c>
+      <c r="I35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" t="s">
+        <v>180</v>
+      </c>
+      <c r="J55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="1" t="s">
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J58" t="s">
+        <v>104</v>
+      </c>
+      <c r="K58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J59" t="s">
+        <v>165</v>
+      </c>
+      <c r="K59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" t="s">
+        <v>136</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" t="s">
+        <v>151</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+      <c r="J60" t="s">
+        <v>166</v>
+      </c>
+      <c r="K60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>137</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" t="s">
+        <v>152</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+      <c r="J61" t="s">
+        <v>167</v>
+      </c>
+      <c r="K61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s">
+        <v>153</v>
+      </c>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J62" t="s">
+        <v>168</v>
+      </c>
+      <c r="K62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" t="s">
+        <v>154</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+      <c r="J63" t="s">
+        <v>169</v>
+      </c>
+      <c r="K63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" t="s">
+        <v>140</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" t="s">
+        <v>155</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+      <c r="J64" t="s">
+        <v>170</v>
+      </c>
+      <c r="K64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" t="s">
+        <v>156</v>
+      </c>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" t="s">
+        <v>157</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+      <c r="J66" t="s">
+        <v>172</v>
+      </c>
+      <c r="K66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" t="s">
+        <v>158</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J67" t="s">
+        <v>173</v>
+      </c>
+      <c r="K67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" t="s">
+        <v>159</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+      <c r="J68" t="s">
+        <v>174</v>
+      </c>
+      <c r="K68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" t="s">
+        <v>145</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" t="s">
+        <v>160</v>
+      </c>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+      <c r="J69" t="s">
+        <v>175</v>
+      </c>
+      <c r="K69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" t="s">
+        <v>146</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" t="s">
+        <v>161</v>
+      </c>
+      <c r="I70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J70" t="s">
+        <v>176</v>
+      </c>
+      <c r="K70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" t="s">
+        <v>147</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" t="s">
+        <v>162</v>
+      </c>
+      <c r="I71" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" t="s">
+        <v>177</v>
+      </c>
+      <c r="K71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" t="s">
+        <v>163</v>
+      </c>
+      <c r="I72" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" t="s">
+        <v>178</v>
+      </c>
+      <c r="K72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" t="s">
+        <v>164</v>
+      </c>
+      <c r="I73" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" t="s">
+        <v>179</v>
+      </c>
+      <c r="K73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" t="s">
+        <v>279</v>
+      </c>
+      <c r="C81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A87" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A96" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E57" t="s">
-        <v>97</v>
-      </c>
-      <c r="G57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" t="s">
-        <v>97</v>
-      </c>
-      <c r="G59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" t="s">
-        <v>97</v>
-      </c>
-      <c r="G60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" t="s">
-        <v>97</v>
-      </c>
-      <c r="G61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" t="s">
-        <v>97</v>
-      </c>
-      <c r="G62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" t="s">
-        <v>97</v>
-      </c>
-      <c r="G64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" t="s">
-        <v>97</v>
-      </c>
-      <c r="G66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" t="s">
-        <v>97</v>
-      </c>
-      <c r="E67" t="s">
-        <v>97</v>
-      </c>
-      <c r="G67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" t="s">
-        <v>97</v>
-      </c>
-      <c r="G68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69" t="s">
-        <v>97</v>
-      </c>
-      <c r="G69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" t="s">
-        <v>97</v>
-      </c>
-      <c r="G70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" t="s">
-        <v>97</v>
-      </c>
-      <c r="G71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" t="s">
-        <v>97</v>
-      </c>
-      <c r="G72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A79" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A80" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C82" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A83" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A86" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A87" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A88" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A89" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A90" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A91" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A93" s="3"/>
-      <c r="B93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A96" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B96" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A98" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>53</v>
       </c>
-      <c r="B102" t="s">
-        <v>97</v>
-      </c>
-      <c r="C102" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>54</v>
-      </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C103" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
+      <c r="E103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>53</v>
       </c>
-      <c r="B106" t="s">
-        <v>100</v>
-      </c>
-      <c r="C106" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>54</v>
-      </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112" s="1"/>
-      <c r="B112" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B115" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B116" t="s">
-        <v>69</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="A113" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C117" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
-        <v>59</v>
-      </c>
-      <c r="B117" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B118" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B121" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
-        <v>73</v>
-      </c>
-      <c r="B123" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>68</v>
+      </c>
+      <c r="B124" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
